--- a/sysGame/sysGame/Project1Rubric_330c8b4d-195b-4b43-a86d-1c547a783bbd.xlsx
+++ b/sysGame/sysGame/Project1Rubric_330c8b4d-195b-4b43-a86d-1c547a783bbd.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkruja\Desktop\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkruja\Documents\GitHub\Conway_wpf\sysGame\sysGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>FEATURE</t>
   </si>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +659,9 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11">
         <v>5</v>
       </c>
@@ -737,6 +740,9 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
       </c>
       <c r="C20">
         <v>15</v>
